--- a/sampleSpreadsheetTest.xlsx
+++ b/sampleSpreadsheetTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericx\Documents\dev\david-steven-eric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4EA456-C398-4D6B-AC04-6177492EFC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46194A73-FFB8-4744-88E5-F0DD14CE97B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{836594FC-68A9-460B-8AAE-FCA68522931D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>3HGGK5H88KM742051</t>
   </si>
@@ -73,6 +73,36 @@
   </si>
   <si>
     <t>Sold</t>
+  </si>
+  <si>
+    <t>1C4RJFLG1HC603078</t>
+  </si>
+  <si>
+    <t>3FA6P0LU1KR101755</t>
+  </si>
+  <si>
+    <t>JTMRWRFV7LJ048851</t>
+  </si>
+  <si>
+    <t>1G1RE6E42EU111830</t>
+  </si>
+  <si>
+    <t>SADCJ2BN5HA086947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNMAT2MV3JP608780 </t>
+  </si>
+  <si>
+    <t>5NPD84LF6KH490922</t>
+  </si>
+  <si>
+    <t>5npe34af3jh646547</t>
+  </si>
+  <si>
+    <t>55SWF4KB5GU142000</t>
+  </si>
+  <si>
+    <t>5N1DR2MM3HC676500</t>
   </si>
 </sst>
 </file>
@@ -108,9 +138,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C144B6EC-AC97-45AB-ADA1-F61A2B03E922}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD22"/>
+      <selection sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,14 +469,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>17000</v>
-      </c>
-      <c r="C1" s="1">
-        <v>19000</v>
-      </c>
-      <c r="D1" s="1">
-        <v>16000</v>
+      <c r="B1">
+        <v>11000</v>
+      </c>
+      <c r="C1">
+        <v>15000</v>
+      </c>
+      <c r="D1">
+        <v>11000</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -457,14 +486,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>16000</v>
       </c>
-      <c r="C2" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>16000</v>
+      <c r="C2">
+        <v>20000</v>
+      </c>
+      <c r="D2">
+        <v>12000</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -474,13 +503,13 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>15000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3">
+        <v>15000</v>
+      </c>
+      <c r="C3">
+        <v>20000</v>
+      </c>
+      <c r="D3">
         <v>13000</v>
       </c>
       <c r="E3" t="s">
@@ -491,14 +520,14 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>17000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>19000</v>
       </c>
-      <c r="D4" s="1">
-        <v>16000</v>
+      <c r="D4">
+        <v>14000</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -508,14 +537,14 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>16000</v>
       </c>
-      <c r="C5" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>16000</v>
+      <c r="C5">
+        <v>20000</v>
+      </c>
+      <c r="D5">
+        <v>15000</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -525,14 +554,14 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>15000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>13000</v>
+      <c r="B6">
+        <v>15000</v>
+      </c>
+      <c r="C6">
+        <v>20000</v>
+      </c>
+      <c r="D6">
+        <v>16000</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -542,14 +571,14 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>17000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>19000</v>
       </c>
-      <c r="D7" s="1">
-        <v>16000</v>
+      <c r="D7">
+        <v>17600</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -559,14 +588,14 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>16000</v>
       </c>
-      <c r="C8" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>16000</v>
+      <c r="C8">
+        <v>20000</v>
+      </c>
+      <c r="D8">
+        <v>1800</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -576,14 +605,14 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>15000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>13000</v>
+      <c r="B9">
+        <v>15000</v>
+      </c>
+      <c r="C9">
+        <v>20000</v>
+      </c>
+      <c r="D9">
+        <v>5000</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -593,16 +622,186 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>15000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>18000</v>
+      <c r="B10">
+        <v>15000</v>
+      </c>
+      <c r="C10">
+        <v>20000</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
       </c>
       <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>17000</v>
+      </c>
+      <c r="C11">
+        <v>19000</v>
+      </c>
+      <c r="D11">
+        <v>20000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>16000</v>
+      </c>
+      <c r="C12">
+        <v>20000</v>
+      </c>
+      <c r="D12">
+        <v>7000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>15000</v>
+      </c>
+      <c r="C13">
+        <v>20000</v>
+      </c>
+      <c r="D13">
+        <v>180</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>17000</v>
+      </c>
+      <c r="C14">
+        <v>19000</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>16000</v>
+      </c>
+      <c r="C15">
+        <v>20000</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>15000</v>
+      </c>
+      <c r="C16">
+        <v>20000</v>
+      </c>
+      <c r="D16">
+        <v>100000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>17000</v>
+      </c>
+      <c r="C17">
+        <v>19000</v>
+      </c>
+      <c r="D17">
+        <v>2000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>16000</v>
+      </c>
+      <c r="C18">
+        <v>20000</v>
+      </c>
+      <c r="D18">
+        <v>78990</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>15000</v>
+      </c>
+      <c r="C19">
+        <v>20000</v>
+      </c>
+      <c r="D19">
+        <v>2947</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>15000</v>
+      </c>
+      <c r="C20">
+        <v>20000</v>
+      </c>
+      <c r="D20">
+        <v>3827</v>
+      </c>
+      <c r="E20" t="s">
         <v>12</v>
       </c>
     </row>
